--- a/Data/Bilançolar/ALCAR.xlsx
+++ b/Data/Bilançolar/ALCAR.xlsx
@@ -15605,7 +15605,7 @@
         <v>-87261660</v>
       </c>
       <c r="C87" t="n">
-        <v>-87709242</v>
+        <v>-57956143</v>
       </c>
       <c r="D87" t="n">
         <v>-175573024</v>
@@ -15955,7 +15955,7 @@
         <v>203318434</v>
       </c>
       <c r="C89" t="n">
-        <v>86001999</v>
+        <v>115755098</v>
       </c>
       <c r="D89" t="n">
         <v>108600278</v>
@@ -17005,7 +17005,7 @@
         <v>238899468</v>
       </c>
       <c r="C95" t="n">
-        <v>87186045</v>
+        <v>116939144</v>
       </c>
       <c r="D95" t="n">
         <v>108626260</v>
@@ -17355,7 +17355,7 @@
         <v>-61232171</v>
       </c>
       <c r="C97" t="n">
-        <v>-7461076</v>
+        <v>-37214175</v>
       </c>
       <c r="D97" t="n">
         <v>-30996941</v>
@@ -20855,7 +20855,7 @@
         <v>-61232171</v>
       </c>
       <c r="C117" t="n">
-        <v>-7461076</v>
+        <v>-37214175</v>
       </c>
       <c r="D117" t="n">
         <v>-30996941</v>
